--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,34 +40,43 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
     <t>dangerous</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
+    <t>hate</t>
+  </si>
+  <si>
     <t>scary</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>crazy</t>
+    <t>bad</t>
   </si>
   <si>
     <t>negative</t>
@@ -76,31 +85,28 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>media</t>
+    <t>netflix</t>
   </si>
   <si>
     <t>positive</t>
@@ -461,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -469,10 +475,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -530,13 +536,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9393939393939394</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -548,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -580,13 +586,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -598,19 +604,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>0.88</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -622,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -630,13 +636,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9230769230769231</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -648,19 +654,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0.8333333333333334</v>
+        <v>0.86</v>
       </c>
       <c r="L5">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -672,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -680,13 +686,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9230769230769231</v>
+        <v>0.9</v>
       </c>
       <c r="C6">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -698,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>0.7368421052631579</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -722,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -730,49 +736,49 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="C7">
+        <v>56</v>
+      </c>
+      <c r="D7">
+        <v>56</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7">
+      <c r="K7">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="L7">
+        <v>34</v>
+      </c>
+      <c r="M7">
+        <v>34</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>26</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7">
-        <v>0.6133333333333333</v>
-      </c>
-      <c r="L7">
-        <v>46</v>
-      </c>
-      <c r="M7">
-        <v>46</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -780,13 +786,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7894736842105263</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -798,19 +804,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.5666666666666667</v>
+        <v>0.52</v>
       </c>
       <c r="L8">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -822,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -830,13 +836,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.675</v>
+        <v>0.7</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -848,31 +854,31 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.5172413793103449</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="L9">
+        <v>14</v>
+      </c>
+      <c r="M9">
+        <v>14</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>15</v>
-      </c>
-      <c r="M9">
-        <v>15</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -880,38 +886,38 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4782608695652174</v>
+        <v>0.6</v>
       </c>
       <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10">
+        <v>0.06010928961748634</v>
+      </c>
+      <c r="L10">
         <v>66</v>
       </c>
-      <c r="D10">
+      <c r="M10">
         <v>66</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>72</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10">
-        <v>0.075591985428051</v>
-      </c>
-      <c r="L10">
-        <v>83</v>
-      </c>
-      <c r="M10">
-        <v>83</v>
-      </c>
       <c r="N10">
         <v>1</v>
       </c>
@@ -922,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1015</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -930,13 +936,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4468085106382979</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -948,19 +954,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.04240282685512368</v>
+        <v>0.02592592592592593</v>
       </c>
       <c r="L11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -972,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>271</v>
+        <v>526</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -980,13 +986,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4285714285714285</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -998,31 +1004,85 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.3714285714285714</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.3617021276595745</v>
+      </c>
+      <c r="C14">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12">
-        <v>0.02710843373493976</v>
-      </c>
-      <c r="L12">
-        <v>18</v>
-      </c>
-      <c r="M12">
-        <v>18</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>646</v>
+      <c r="B15">
+        <v>0.358974358974359</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
